--- a/SourceFiles/UserDetails.xlsx
+++ b/SourceFiles/UserDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC1FAF-2D89-498F-8773-2CE45455C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC71A7E-D6DA-41DF-8739-4806875E656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Deepak Grewal</t>
   </si>
   <si>
-    <t>BH01182721</t>
+    <t>Dgrewal</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SourceFiles/UserDetails.xlsx
+++ b/SourceFiles/UserDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGupta\Desktop\GFEDTechTitans-Git\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC1FAF-2D89-498F-8773-2CE45455C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6129455-5C62-45CF-9EF1-3731AAC1D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="46320" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Deepak Grewal</t>
+    <t>Gopesh Gupta</t>
   </si>
   <si>
-    <t>BH01182721</t>
+    <t>GGupta</t>
   </si>
 </sst>
 </file>
@@ -357,12 +357,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/SourceFiles/UserDetails.xlsx
+++ b/SourceFiles/UserDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGupta\Desktop\GFEDTechTitans-Git\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC71A7E-D6DA-41DF-8739-4806875E656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421F249A-2FA5-46FB-BA7B-85A0AA3A6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="34560" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserId</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Dgrewal</t>
+  </si>
+  <si>
+    <t>Ggupta</t>
+  </si>
+  <si>
+    <t>Gopesh Gupta</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +388,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SourceFiles/UserDetails.xlsx
+++ b/SourceFiles/UserDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGupta\Desktop\GFEDTechTitans-Git\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421F249A-2FA5-46FB-BA7B-85A0AA3A6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC71A7E-D6DA-41DF-8739-4806875E656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="34560" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserId</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Dgrewal</t>
-  </si>
-  <si>
-    <t>Ggupta</t>
-  </si>
-  <si>
-    <t>Gopesh Gupta</t>
   </si>
 </sst>
 </file>
@@ -360,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,14 +382,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SourceFiles/UserDetails.xlsx
+++ b/SourceFiles/UserDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGupta\Desktop\GFEDTechTitans-Git\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC71A7E-D6DA-41DF-8739-4806875E656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F7DD0-DDA1-4675-A9D2-F0267A2B1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="34560" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserId</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Dgrewal</t>
+  </si>
+  <si>
+    <t>Ggupta</t>
+  </si>
+  <si>
+    <t>Gopesh Gupta</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +388,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
